--- a/src/test/resources/HomeLoan.xlsx
+++ b/src/test/resources/HomeLoan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="235">
   <si>
     <t>Year</t>
   </si>
@@ -376,6 +376,360 @@
   </si>
   <si>
     <t>Loan to be paid</t>
+  </si>
+  <si>
+    <t>₹ 1,75,356</t>
+  </si>
+  <si>
+    <t>₹ 2,58,772</t>
+  </si>
+  <si>
+    <t>₹ 51,333</t>
+  </si>
+  <si>
+    <t>₹ 4,85,462</t>
+  </si>
+  <si>
+    <t>₹ 28,74,644</t>
+  </si>
+  <si>
+    <t>5.75%</t>
+  </si>
+  <si>
+    <t>₹ 2,09,469</t>
+  </si>
+  <si>
+    <t>₹ 2,64,126</t>
+  </si>
+  <si>
+    <t>₹ 56,000</t>
+  </si>
+  <si>
+    <t>₹ 5,29,595</t>
+  </si>
+  <si>
+    <t>₹ 26,65,175</t>
+  </si>
+  <si>
+    <t>12.62%</t>
+  </si>
+  <si>
+    <t>₹ 2,30,258</t>
+  </si>
+  <si>
+    <t>₹ 2,43,337</t>
+  </si>
+  <si>
+    <t>₹ 24,34,917</t>
+  </si>
+  <si>
+    <t>20.17%</t>
+  </si>
+  <si>
+    <t>₹ 2,53,111</t>
+  </si>
+  <si>
+    <t>₹ 2,20,485</t>
+  </si>
+  <si>
+    <t>₹ 21,81,806</t>
+  </si>
+  <si>
+    <t>28.47%</t>
+  </si>
+  <si>
+    <t>₹ 2,78,231</t>
+  </si>
+  <si>
+    <t>₹ 1,95,364</t>
+  </si>
+  <si>
+    <t>₹ 19,03,575</t>
+  </si>
+  <si>
+    <t>37.59%</t>
+  </si>
+  <si>
+    <t>₹ 3,05,845</t>
+  </si>
+  <si>
+    <t>₹ 1,67,750</t>
+  </si>
+  <si>
+    <t>₹ 15,97,730</t>
+  </si>
+  <si>
+    <t>47.62%</t>
+  </si>
+  <si>
+    <t>₹ 3,36,199</t>
+  </si>
+  <si>
+    <t>₹ 1,37,396</t>
+  </si>
+  <si>
+    <t>₹ 12,61,531</t>
+  </si>
+  <si>
+    <t>58.64%</t>
+  </si>
+  <si>
+    <t>₹ 3,69,566</t>
+  </si>
+  <si>
+    <t>₹ 1,04,029</t>
+  </si>
+  <si>
+    <t>₹ 8,91,965</t>
+  </si>
+  <si>
+    <t>70.76%</t>
+  </si>
+  <si>
+    <t>₹ 4,06,245</t>
+  </si>
+  <si>
+    <t>₹ 67,350</t>
+  </si>
+  <si>
+    <t>₹ 4,85,720</t>
+  </si>
+  <si>
+    <t>84.07%</t>
+  </si>
+  <si>
+    <t>₹ 4,46,564</t>
+  </si>
+  <si>
+    <t>₹ 27,031</t>
+  </si>
+  <si>
+    <t>₹ 39,156</t>
+  </si>
+  <si>
+    <t>98.72%</t>
+  </si>
+  <si>
+    <t>₹ 310</t>
+  </si>
+  <si>
+    <t>₹ 4,667</t>
+  </si>
+  <si>
+    <t>₹ 44,133</t>
+  </si>
+  <si>
+    <t>₹ 45,833</t>
+  </si>
+  <si>
+    <t>₹ 4,79,962</t>
+  </si>
+  <si>
+    <t>₹ 50,000</t>
+  </si>
+  <si>
+    <t>₹ 5,23,595</t>
+  </si>
+  <si>
+    <t>₹ 4,167</t>
+  </si>
+  <si>
+    <t>₹ 43,633</t>
+  </si>
+  <si>
+    <t>₹ 1,30,289</t>
+  </si>
+  <si>
+    <t>₹ 1,97,748</t>
+  </si>
+  <si>
+    <t>₹ 37,446</t>
+  </si>
+  <si>
+    <t>₹ 3,65,483</t>
+  </si>
+  <si>
+    <t>₹ 26,24,711</t>
+  </si>
+  <si>
+    <t>4.73%</t>
+  </si>
+  <si>
+    <t>₹ 1,53,427</t>
+  </si>
+  <si>
+    <t>₹ 2,04,432</t>
+  </si>
+  <si>
+    <t>₹ 40,850</t>
+  </si>
+  <si>
+    <t>₹ 3,98,709</t>
+  </si>
+  <si>
+    <t>₹ 24,71,284</t>
+  </si>
+  <si>
+    <t>10.3%</t>
+  </si>
+  <si>
+    <t>₹ 1,66,161</t>
+  </si>
+  <si>
+    <t>₹ 1,91,698</t>
+  </si>
+  <si>
+    <t>₹ 23,05,123</t>
+  </si>
+  <si>
+    <t>16.33%</t>
+  </si>
+  <si>
+    <t>₹ 1,79,952</t>
+  </si>
+  <si>
+    <t>₹ 1,77,907</t>
+  </si>
+  <si>
+    <t>₹ 4,01,109</t>
+  </si>
+  <si>
+    <t>₹ 21,25,171</t>
+  </si>
+  <si>
+    <t>22.86%</t>
+  </si>
+  <si>
+    <t>₹ 1,94,888</t>
+  </si>
+  <si>
+    <t>₹ 1,62,971</t>
+  </si>
+  <si>
+    <t>₹ 43,250</t>
+  </si>
+  <si>
+    <t>₹ 19,30,283</t>
+  </si>
+  <si>
+    <t>29.94%</t>
+  </si>
+  <si>
+    <t>₹ 2,11,064</t>
+  </si>
+  <si>
+    <t>₹ 1,46,795</t>
+  </si>
+  <si>
+    <t>₹ 17,19,219</t>
+  </si>
+  <si>
+    <t>37.6%</t>
+  </si>
+  <si>
+    <t>₹ 2,28,582</t>
+  </si>
+  <si>
+    <t>₹ 1,29,277</t>
+  </si>
+  <si>
+    <t>₹ 14,90,637</t>
+  </si>
+  <si>
+    <t>45.89%</t>
+  </si>
+  <si>
+    <t>₹ 2,47,554</t>
+  </si>
+  <si>
+    <t>₹ 1,10,305</t>
+  </si>
+  <si>
+    <t>₹ 12,43,083</t>
+  </si>
+  <si>
+    <t>54.88%</t>
+  </si>
+  <si>
+    <t>₹ 2,68,101</t>
+  </si>
+  <si>
+    <t>₹ 89,758</t>
+  </si>
+  <si>
+    <t>₹ 9,74,982</t>
+  </si>
+  <si>
+    <t>64.61%</t>
+  </si>
+  <si>
+    <t>₹ 2,90,353</t>
+  </si>
+  <si>
+    <t>₹ 67,506</t>
+  </si>
+  <si>
+    <t>₹ 6,84,628</t>
+  </si>
+  <si>
+    <t>75.15%</t>
+  </si>
+  <si>
+    <t>₹ 3,14,452</t>
+  </si>
+  <si>
+    <t>₹ 43,406</t>
+  </si>
+  <si>
+    <t>₹ 3,70,176</t>
+  </si>
+  <si>
+    <t>86.56%</t>
+  </si>
+  <si>
+    <t>₹ 3,40,552</t>
+  </si>
+  <si>
+    <t>₹ 17,307</t>
+  </si>
+  <si>
+    <t>₹ 29,624</t>
+  </si>
+  <si>
+    <t>98.92%</t>
+  </si>
+  <si>
+    <t>₹ 197</t>
+  </si>
+  <si>
+    <t>₹ 3,604</t>
+  </si>
+  <si>
+    <t>₹ 33,426</t>
+  </si>
+  <si>
+    <t>₹ 42,900</t>
+  </si>
+  <si>
+    <t>₹ 3,70,937</t>
+  </si>
+  <si>
+    <t>₹ 46,800</t>
+  </si>
+  <si>
+    <t>₹ 4,04,659</t>
+  </si>
+  <si>
+    <t>₹ 4,07,059</t>
+  </si>
+  <si>
+    <t>₹ 49,200</t>
+  </si>
+  <si>
+    <t>₹ 4,100</t>
+  </si>
+  <si>
+    <t>₹ 33,922</t>
   </si>
 </sst>
 </file>
@@ -749,22 +1103,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>11</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -772,22 +1126,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -795,22 +1149,22 @@
         <v>19</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -818,22 +1172,22 @@
         <v>24</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>28</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -841,22 +1195,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s" s="1">
-        <v>33</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -864,22 +1218,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>38</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -887,22 +1241,22 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>43</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -910,22 +1264,22 @@
         <v>44</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -933,22 +1287,22 @@
         <v>49</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>53</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -956,22 +1310,22 @@
         <v>54</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -979,22 +1333,22 @@
         <v>59</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>63</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1002,22 +1356,22 @@
         <v>64</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s" s="1">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="G13" t="s" s="1">
-        <v>68</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1025,22 +1379,22 @@
         <v>69</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s" s="1">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">

--- a/src/test/resources/HomeLoan.xlsx
+++ b/src/test/resources/HomeLoan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="235">
   <si>
     <t>Year</t>
   </si>
@@ -1201,10 +1201,10 @@
         <v>192</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>194</v>

--- a/src/test/resources/HomeLoan.xlsx
+++ b/src/test/resources/HomeLoan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="235">
   <si>
     <t>Year</t>
   </si>
@@ -1181,7 +1181,7 @@
         <v>229</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>189</v>

--- a/src/test/resources/HomeLoan.xlsx
+++ b/src/test/resources/HomeLoan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="237">
   <si>
     <t>Year</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>₹ 33,922</t>
+  </si>
+  <si>
+    <t>₹ 45,100</t>
+  </si>
+  <si>
+    <t>₹ 3,73,137</t>
   </si>
 </sst>
 </file>
@@ -1103,22 +1109,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>175</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1126,22 +1132,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1149,22 +1155,22 @@
         <v>19</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1172,22 +1178,22 @@
         <v>24</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>190</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1195,22 +1201,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s" s="1">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1218,22 +1224,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1241,22 +1247,22 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1264,22 +1270,22 @@
         <v>44</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1287,22 +1293,22 @@
         <v>49</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>211</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1310,22 +1316,22 @@
         <v>54</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>215</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1333,22 +1339,22 @@
         <v>59</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>219</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">

--- a/src/test/resources/HomeLoan.xlsx
+++ b/src/test/resources/HomeLoan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="237">
   <si>
     <t>Year</t>
   </si>
